--- a/SE202526/Management/Gantt Template.xlsx
+++ b/SE202526/Management/Gantt Template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF865BCE-518C-4401-9706-71E7BD3908A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29E7571-7B88-4364-BAC6-719692518F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="1460" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <definedName name="PeriodInActual">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$F1,'Project Planner'!$F1+'Project Planner'!$G1-1)</definedName>
     <definedName name="PeriodInPlan">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$D1,'Project Planner'!$D1+'Project Planner'!$E1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Project Planner'!$D1&gt;0)</definedName>
+    <definedName name="TitleRegion..BO60">'Project Planner'!$C$3:$C$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
-    <definedName name="TitleRegion..BO60">'Project Planner'!$C$3:$C$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -636,18 +636,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="19" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -671,12 +677,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="19" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -685,12 +685,11 @@
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="19" builtinId="26"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Correto" xfId="19" builtinId="26"/>
     <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
@@ -699,7 +698,8 @@
     <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="12" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1090,21 +1090,21 @@
   </sheetPr>
   <dimension ref="B1:BP30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" customWidth="1"/>
-    <col min="2" max="2" width="23.4140625" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="2" customWidth="1"/>
-    <col min="4" max="7" width="11.58203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.58203125" style="4" customWidth="1"/>
-    <col min="9" max="28" width="3.25" style="1"/>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="2" customWidth="1"/>
+    <col min="4" max="7" width="11.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="4" customWidth="1"/>
+    <col min="9" max="28" width="3.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
+    <row r="1" spans="2:68" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1114,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="2:68" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:68" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
@@ -1129,69 +1129,69 @@
         <v>1</v>
       </c>
       <c r="K2" s="15"/>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
       <c r="Q2" s="16"/>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="30"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="32"/>
       <c r="V2" s="17"/>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="32"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="34"/>
       <c r="AA2" s="18"/>
-      <c r="AB2" s="21" t="s">
+      <c r="AB2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="32"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="34"/>
       <c r="AI2" s="19"/>
-      <c r="AJ2" s="21" t="s">
+      <c r="AJ2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-    </row>
-    <row r="3" spans="2:68" s="11" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+    </row>
+    <row r="3" spans="2:68" s="11" customFormat="1" ht="40.049999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="29" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="10" t="s">
@@ -1214,7 +1214,7 @@
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
-      <c r="Z3" s="33" t="s">
+      <c r="Z3" s="21" t="s">
         <v>48</v>
       </c>
       <c r="AB3" s="10" t="s">
@@ -1227,7 +1227,7 @@
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
       <c r="AM3" s="10"/>
-      <c r="AN3" s="33" t="s">
+      <c r="AN3" s="21" t="s">
         <v>49</v>
       </c>
       <c r="AO3" s="10"/>
@@ -1261,18 +1261,18 @@
       <c r="BK3" s="10"/>
       <c r="BL3" s="10"/>
       <c r="BM3" s="10"/>
-      <c r="BN3" s="33" t="s">
+      <c r="BN3" s="21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="3">
         <v>1</v>
       </c>
@@ -1454,8 +1454,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="34" t="s">
+    <row r="5" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1477,7 +1477,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>51</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>52</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="10" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="11" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="6" t="s">
         <v>15</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="6" t="s">
         <v>19</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="6" t="s">
         <v>20</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" s="6" t="s">
         <v>21</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="6" t="s">
         <v>22</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="6" t="s">
         <v>23</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C26" s="6" t="s">
         <v>24</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="6" t="s">
         <v>25</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C28" s="6" t="s">
         <v>26</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C29" s="6" t="s">
         <v>27</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C30" s="6" t="s">
         <v>28</v>
       </c>
